--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -8,18 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anning\Chrome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ECDE27-4252-4B53-973C-BB70EEB2EECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447B41AE-E938-42A3-AD50-8BE6F509F882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義" sheetId="19" r:id="rId1"/>
-    <sheet name="選択肢リスト" sheetId="23" r:id="rId2"/>
+    <sheet name="選択肢リスト" sheetId="24" r:id="rId2"/>
     <sheet name="CodeList" sheetId="22" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">選択肢リスト!$A$1:$CI$24</definedName>
-    <definedName name="Z_407F53A2_1355_4457_B0E3_91CDD70091FA_.wvu.PrintArea" localSheetId="1" hidden="1">選択肢リスト!$A$1:$CI$24</definedName>
     <definedName name="システム名">"PS社内ServiceNow導入システム"</definedName>
     <definedName name="会社名">"株式会社ピカソフト（PicaSoft Co., Ltd.）"</definedName>
   </definedNames>
@@ -28,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="224">
   <si>
     <t>No.</t>
   </si>
   <si>
-    <t>稼働状況</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
@@ -54,9 +49,6 @@
     <t>メール</t>
   </si>
   <si>
-    <t>u_remark</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
@@ -66,43 +58,13 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>通勤日</t>
-  </si>
-  <si>
-    <t>出勤時刻</t>
-  </si>
-  <si>
-    <t>退勤時刻</t>
-  </si>
-  <si>
-    <t>振替(予定)</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
-    <t>u_commuting_date</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
-    <t>u_leave_time</t>
-  </si>
-  <si>
-    <t>u_holiday_type</t>
-  </si>
-  <si>
-    <t>u_holiday_reason</t>
-  </si>
-  <si>
     <t>Decimal</t>
-  </si>
-  <si>
-    <t>u_exchange_date</t>
-  </si>
-  <si>
-    <t>u_substitute_holiday</t>
   </si>
   <si>
     <t>Phone Number (E164)</t>
@@ -511,150 +473,22 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>稼働状況（u_worktime）</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>勤怠管理ID</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Refer worktime</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>u_refer_worktime</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Commuting date</t>
-  </si>
-  <si>
-    <t>Leave time</t>
-  </si>
-  <si>
-    <t>Holiday reason</t>
-  </si>
-  <si>
     <t>True/False</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>年休、病休、用事休暇</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>勤務種別</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>休暇種類</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Commencement time</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>u_commencement_time</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>u_number</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>勤怠時間</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>u_workover_time</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>残業時間</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Rest time</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>u_rest_time</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>休憩時間</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>1.0</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>Exchange date</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>通常、振替、休日出勤、休日</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>u_next_day</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>翌日</t>
-    <rPh sb="0" eb="2">
-      <t>ヨクジツ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Substitute holiday</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>代休日</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>休暇理由</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>u_attendance_time</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Workover time</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Attendance time</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>Decimal</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>u_work_type</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>Reference</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>稼働状況(u_worktime)</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>true</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -662,64 +496,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>通常</t>
-  </si>
-  <si>
-    <t>振替</t>
-  </si>
-  <si>
-    <t>休日出勤</t>
-  </si>
-  <si>
-    <t>Holiday work</t>
-  </si>
-  <si>
-    <t>休日</t>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Substitute</t>
-  </si>
-  <si>
-    <t>Holiday</t>
-  </si>
-  <si>
-    <t>Timecard number1</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>テスト勤怠管理</t>
-    <rPh sb="3" eb="5">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Work type111</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Holiday type111</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Next day111</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Remark111</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>テーブルラベル（EN）</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -784,12 +560,6 @@
   </si>
   <si>
     <t>値</t>
-  </si>
-  <si>
-    <t>ラベル（JA）</t>
-  </si>
-  <si>
-    <t>ラベル（EN）</t>
   </si>
   <si>
     <t>シーケンス</t>
@@ -811,20 +581,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>選択肢</t>
-    <rPh sb="0" eb="3">
-      <t>センタクシ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>追加</t>
   </si>
   <si>
@@ -832,19 +588,241 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>TimeCard28</t>
+    <t>task</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>TestTask1</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>sn_hr_sp_timecard28</t>
+    <t>u_testtask1</t>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Test Column1</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Test Column2</t>
+  </si>
+  <si>
+    <t>Test Column3</t>
+  </si>
+  <si>
+    <t>Test Column4</t>
+  </si>
+  <si>
+    <t>Test Column5</t>
+  </si>
+  <si>
+    <t>Test Column6</t>
+  </si>
+  <si>
+    <t>Test Column7</t>
+  </si>
+  <si>
+    <t>Test Column8</t>
+  </si>
+  <si>
+    <t>Test Column9</t>
+  </si>
+  <si>
+    <t>Test Column10</t>
+  </si>
+  <si>
+    <t>Test Column11</t>
+  </si>
+  <si>
+    <t>Test Column12</t>
+  </si>
+  <si>
+    <t>Test Column13</t>
+  </si>
+  <si>
+    <t>Test Column14</t>
+  </si>
+  <si>
+    <t>Test Column15</t>
+  </si>
+  <si>
+    <t>テスト カラム1</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テスト カラム2</t>
+  </si>
+  <si>
+    <t>テスト カラム3</t>
+  </si>
+  <si>
+    <t>テスト カラム4</t>
+  </si>
+  <si>
+    <t>テスト カラム5</t>
+  </si>
+  <si>
+    <t>テスト カラム6</t>
+  </si>
+  <si>
+    <t>テスト カラム7</t>
+  </si>
+  <si>
+    <t>テスト カラム8</t>
+  </si>
+  <si>
+    <t>テスト カラム9</t>
+  </si>
+  <si>
+    <t>テスト カラム10</t>
+  </si>
+  <si>
+    <t>テスト カラム11</t>
+  </si>
+  <si>
+    <t>テスト カラム12</t>
+  </si>
+  <si>
+    <t>テスト カラム13</t>
+  </si>
+  <si>
+    <t>テスト カラム14</t>
+  </si>
+  <si>
+    <t>テスト カラム15</t>
+  </si>
+  <si>
+    <t>u_test_column10</t>
+  </si>
+  <si>
+    <t>TestChoice1</t>
+  </si>
+  <si>
+    <t>TestChoice2</t>
+  </si>
+  <si>
+    <t>TestChoice3</t>
+  </si>
+  <si>
+    <t>TestChoice4</t>
+  </si>
+  <si>
+    <t>テストタスク1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>ラベル（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>JA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ラベル（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <r>
+      <t>テスト選択肢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>テスト選択肢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>テスト選択肢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>テスト選択肢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,8 +891,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -936,35 +921,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor rgb="FFD8D8D8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1068,92 +1035,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1195,7 +1076,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1214,15 +1095,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1232,38 +1104,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1286,7 +1134,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1294,12 +1142,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1310,101 +1152,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1630,10 +1424,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:N970"/>
+  <dimension ref="A1:M970"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1646,15 +1440,14 @@
     <col min="6" max="7" width="14.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.875" customWidth="1"/>
     <col min="9" max="9" width="15.125" customWidth="1"/>
-    <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.125" customWidth="1"/>
-    <col min="13" max="13" width="15.375" customWidth="1"/>
-    <col min="14" max="14" width="23.125" customWidth="1"/>
-    <col min="15" max="23" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="14.75" customWidth="1"/>
+    <col min="13" max="13" width="23.125" customWidth="1"/>
+    <col min="14" max="22" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1668,47 +1461,48 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="F2" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-    </row>
-    <row r="4" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="1:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1722,9 +1516,8 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1738,9 +1531,8 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1754,9 +1546,8 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1770,550 +1561,538 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+    </row>
+    <row r="8" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>221</v>
+      <c r="B8" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>225</v>
+        <v>165</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31">
+        <v>169</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="16">
+      <c r="B9" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="8" t="str">
+        <f>"u_" &amp; LOWER(SUBSTITUTE(C9, " ", "_"))</f>
+        <v>u_test_column1</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="32">
         <v>40</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-    </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31">
+      <c r="H9" s="9"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M9" s="37"/>
+    </row>
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
         <f t="shared" ref="A10:A23" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="M10" s="39"/>
-      <c r="N10" s="40" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31">
+      <c r="B10" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="8" t="str">
+        <f t="shared" ref="E10:E23" si="1">"u_" &amp; LOWER(SUBSTITUTE(C10, " ", "_"))</f>
+        <v>u_test_column2</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M10" s="38"/>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>239</v>
+      <c r="B11" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>10</v>
+        <v>183</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>u_test_column3</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>8</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="40" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31">
+      <c r="J11" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="38"/>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>239</v>
+      <c r="B12" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>10</v>
+        <v>184</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>u_test_column4</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>8</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-    </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31">
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="37"/>
+    </row>
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>239</v>
+      <c r="B13" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>10</v>
+        <v>185</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>u_test_column5</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>8</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-    </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="37"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>239</v>
+      <c r="B14" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>158</v>
+        <v>186</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>u_test_column6</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>146</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-    </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31">
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" s="37"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>239</v>
+      <c r="B15" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>158</v>
+        <v>187</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>u_test_column7</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>146</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-    </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
+      <c r="I15" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="37"/>
+    </row>
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>239</v>
+      <c r="B16" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>158</v>
+        <v>188</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>u_test_column8</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>146</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-    </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" s="37"/>
+    </row>
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>239</v>
+      <c r="B17" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>189</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>u_test_column9</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="32"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-    </row>
-    <row r="18" spans="1:14" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="37"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>239</v>
+      <c r="B18" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>10</v>
+        <v>190</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>u_test_column10</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>8</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="N18" s="39"/>
-    </row>
-    <row r="19" spans="1:14" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="31">
+      <c r="J18" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="37"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="20">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>239</v>
+      <c r="B19" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="7">
+        <v>191</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>u_test_column11</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="32">
         <v>1</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="N19" s="39"/>
-    </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31">
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="37"/>
+    </row>
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>239</v>
+      <c r="B20" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>6</v>
+        <v>192</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>u_test_column12</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>5</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-    </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31">
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="37"/>
+    </row>
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>239</v>
+      <c r="B21" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>10</v>
+        <v>193</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>u_test_column13</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>8</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-    </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31">
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="37"/>
+    </row>
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>239</v>
+      <c r="B22" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>10</v>
+        <v>194</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>u_test_column14</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-    </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31">
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="37"/>
+    </row>
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="B23" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>u_test_column15</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="35">
         <v>4000</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-    </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="37"/>
+    </row>
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3265,1971 +3044,285 @@
   </dataValidations>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C7895DD-8D9E-40F6-BE02-4154A0F77A21}">
+          <x14:formula1>
+            <xm:f>CodeList!$C$3:$C$53</xm:f>
+          </x14:formula1>
+          <xm:sqref>F9:F23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25ABB6A1-2F43-476F-B4E9-06DCEB096915}">
-  <dimension ref="A1:BU22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCF3CD9-D5A8-46CE-A1A9-25CB8A5D9D04}">
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="42"/>
+    <col min="1" max="1" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="56"/>
-    </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="43" t="s">
+    <row r="1" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="29">
+        <v>1</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="48"/>
-      <c r="BB2" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="BC2" s="47"/>
-      <c r="BD2" s="47"/>
-      <c r="BE2" s="47"/>
-      <c r="BF2" s="48"/>
-      <c r="BG2" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="BH2" s="47"/>
-      <c r="BI2" s="47"/>
-      <c r="BJ2" s="47"/>
-      <c r="BK2" s="48"/>
-      <c r="BL2" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="BM2" s="50"/>
-      <c r="BN2" s="50"/>
-      <c r="BO2" s="50"/>
-      <c r="BP2" s="50"/>
-      <c r="BQ2" s="50"/>
-      <c r="BR2" s="50"/>
-      <c r="BS2" s="50"/>
-      <c r="BT2" s="50"/>
-      <c r="BU2" s="51"/>
-    </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A3" s="59">
-        <f>ROW()-2</f>
+      <c r="E9" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="29">
+        <v>10</v>
+      </c>
+      <c r="G9" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="61">
-        <v>1</v>
-      </c>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="61">
-        <v>10</v>
-      </c>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="62"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="61" t="b">
+      <c r="J9" s="40"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="29">
+        <v>2</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="29">
+        <v>2</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="29">
+        <v>20</v>
+      </c>
+      <c r="G10" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="AX3" s="62"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="63"/>
-      <c r="BB3" s="61"/>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="63"/>
-      <c r="BG3" s="61">
-        <v>1</v>
-      </c>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
-      <c r="BJ3" s="62"/>
-      <c r="BK3" s="63"/>
-      <c r="BL3" s="64"/>
-      <c r="BM3" s="65"/>
-      <c r="BN3" s="65"/>
-      <c r="BO3" s="65"/>
-      <c r="BP3" s="65"/>
-      <c r="BQ3" s="65"/>
-      <c r="BR3" s="65"/>
-      <c r="BS3" s="65"/>
-      <c r="BT3" s="65"/>
-      <c r="BU3" s="66"/>
-    </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A4" s="59">
-        <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29">
         <v>2</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="61">
-        <v>2</v>
-      </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="61" t="s">
-        <v>199</v>
-      </c>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="62"/>
-      <c r="AL4" s="62"/>
-      <c r="AM4" s="62"/>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="62"/>
-      <c r="AP4" s="62"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="61">
-        <v>20</v>
-      </c>
-      <c r="AS4" s="62"/>
-      <c r="AT4" s="62"/>
-      <c r="AU4" s="62"/>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="61" t="b">
+      <c r="J10" s="40"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="29">
+        <v>3</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="29">
+        <v>3</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="29">
+        <v>30</v>
+      </c>
+      <c r="G11" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="AX4" s="62"/>
-      <c r="AY4" s="62"/>
-      <c r="AZ4" s="62"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="61"/>
-      <c r="BC4" s="62"/>
-      <c r="BD4" s="62"/>
-      <c r="BE4" s="62"/>
-      <c r="BF4" s="63"/>
-      <c r="BG4" s="61">
-        <v>2</v>
-      </c>
-      <c r="BH4" s="62"/>
-      <c r="BI4" s="62"/>
-      <c r="BJ4" s="62"/>
-      <c r="BK4" s="63"/>
-      <c r="BL4" s="64"/>
-      <c r="BM4" s="65"/>
-      <c r="BN4" s="65"/>
-      <c r="BO4" s="65"/>
-      <c r="BP4" s="65"/>
-      <c r="BQ4" s="65"/>
-      <c r="BR4" s="65"/>
-      <c r="BS4" s="65"/>
-      <c r="BT4" s="65"/>
-      <c r="BU4" s="66"/>
-    </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A5" s="59">
-        <f t="shared" si="0"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="61">
-        <v>3</v>
-      </c>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="63"/>
-      <c r="AG5" s="61" t="s">
-        <v>201</v>
-      </c>
-      <c r="AH5" s="62"/>
-      <c r="AI5" s="62"/>
-      <c r="AJ5" s="62"/>
-      <c r="AK5" s="62"/>
-      <c r="AL5" s="62"/>
-      <c r="AM5" s="62"/>
-      <c r="AN5" s="62"/>
-      <c r="AO5" s="62"/>
-      <c r="AP5" s="62"/>
-      <c r="AQ5" s="63"/>
-      <c r="AR5" s="61">
-        <v>30</v>
-      </c>
-      <c r="AS5" s="62"/>
-      <c r="AT5" s="62"/>
-      <c r="AU5" s="62"/>
-      <c r="AV5" s="63"/>
-      <c r="AW5" s="61" t="b">
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="29">
+        <v>4</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="29">
+        <v>4</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="F12" s="29">
+        <v>40</v>
+      </c>
+      <c r="G12" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="AX5" s="62"/>
-      <c r="AY5" s="62"/>
-      <c r="AZ5" s="62"/>
-      <c r="BA5" s="63"/>
-      <c r="BB5" s="61"/>
-      <c r="BC5" s="62"/>
-      <c r="BD5" s="62"/>
-      <c r="BE5" s="62"/>
-      <c r="BF5" s="63"/>
-      <c r="BG5" s="61">
-        <v>3</v>
-      </c>
-      <c r="BH5" s="62"/>
-      <c r="BI5" s="62"/>
-      <c r="BJ5" s="62"/>
-      <c r="BK5" s="63"/>
-      <c r="BL5" s="64"/>
-      <c r="BM5" s="65"/>
-      <c r="BN5" s="65"/>
-      <c r="BO5" s="65"/>
-      <c r="BP5" s="65"/>
-      <c r="BQ5" s="65"/>
-      <c r="BR5" s="65"/>
-      <c r="BS5" s="65"/>
-      <c r="BT5" s="65"/>
-      <c r="BU5" s="66"/>
-    </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A6" s="59">
-        <f t="shared" si="0"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29">
         <v>4</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="67" t="s">
-        <v>203</v>
-      </c>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="62"/>
-      <c r="AF6" s="63"/>
-      <c r="AG6" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="62"/>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="62"/>
-      <c r="AL6" s="62"/>
-      <c r="AM6" s="62"/>
-      <c r="AN6" s="62"/>
-      <c r="AO6" s="62"/>
-      <c r="AP6" s="62"/>
-      <c r="AQ6" s="63"/>
-      <c r="AR6" s="61">
-        <v>40</v>
-      </c>
-      <c r="AS6" s="62"/>
-      <c r="AT6" s="62"/>
-      <c r="AU6" s="62"/>
-      <c r="AV6" s="63"/>
-      <c r="AW6" s="61" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="62"/>
-      <c r="AY6" s="62"/>
-      <c r="AZ6" s="62"/>
-      <c r="BA6" s="63"/>
-      <c r="BB6" s="61"/>
-      <c r="BC6" s="62"/>
-      <c r="BD6" s="62"/>
-      <c r="BE6" s="62"/>
-      <c r="BF6" s="63"/>
-      <c r="BG6" s="61">
-        <v>4</v>
-      </c>
-      <c r="BH6" s="62"/>
-      <c r="BI6" s="62"/>
-      <c r="BJ6" s="62"/>
-      <c r="BK6" s="63"/>
-      <c r="BL6" s="64"/>
-      <c r="BM6" s="65"/>
-      <c r="BN6" s="65"/>
-      <c r="BO6" s="65"/>
-      <c r="BP6" s="65"/>
-      <c r="BQ6" s="65"/>
-      <c r="BR6" s="65"/>
-      <c r="BS6" s="65"/>
-      <c r="BT6" s="65"/>
-      <c r="BU6" s="66"/>
-    </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A7" s="59">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="62"/>
-      <c r="AE7" s="62"/>
-      <c r="AF7" s="63"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="62"/>
-      <c r="AM7" s="62"/>
-      <c r="AN7" s="62"/>
-      <c r="AO7" s="62"/>
-      <c r="AP7" s="62"/>
-      <c r="AQ7" s="63"/>
-      <c r="AR7" s="61"/>
-      <c r="AS7" s="62"/>
-      <c r="AT7" s="62"/>
-      <c r="AU7" s="62"/>
-      <c r="AV7" s="63"/>
-      <c r="AW7" s="61"/>
-      <c r="AX7" s="62"/>
-      <c r="AY7" s="62"/>
-      <c r="AZ7" s="62"/>
-      <c r="BA7" s="63"/>
-      <c r="BB7" s="61"/>
-      <c r="BC7" s="62"/>
-      <c r="BD7" s="62"/>
-      <c r="BE7" s="62"/>
-      <c r="BF7" s="63"/>
-      <c r="BG7" s="61"/>
-      <c r="BH7" s="62"/>
-      <c r="BI7" s="62"/>
-      <c r="BJ7" s="62"/>
-      <c r="BK7" s="63"/>
-      <c r="BL7" s="64"/>
-      <c r="BM7" s="65"/>
-      <c r="BN7" s="65"/>
-      <c r="BO7" s="65"/>
-      <c r="BP7" s="65"/>
-      <c r="BQ7" s="65"/>
-      <c r="BR7" s="65"/>
-      <c r="BS7" s="65"/>
-      <c r="BT7" s="65"/>
-      <c r="BU7" s="66"/>
-    </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A8" s="59">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="62"/>
-      <c r="AF8" s="63"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="62"/>
-      <c r="AI8" s="62"/>
-      <c r="AJ8" s="62"/>
-      <c r="AK8" s="62"/>
-      <c r="AL8" s="62"/>
-      <c r="AM8" s="62"/>
-      <c r="AN8" s="62"/>
-      <c r="AO8" s="62"/>
-      <c r="AP8" s="62"/>
-      <c r="AQ8" s="63"/>
-      <c r="AR8" s="61"/>
-      <c r="AS8" s="62"/>
-      <c r="AT8" s="62"/>
-      <c r="AU8" s="62"/>
-      <c r="AV8" s="63"/>
-      <c r="AW8" s="61"/>
-      <c r="AX8" s="62"/>
-      <c r="AY8" s="62"/>
-      <c r="AZ8" s="62"/>
-      <c r="BA8" s="63"/>
-      <c r="BB8" s="61"/>
-      <c r="BC8" s="62"/>
-      <c r="BD8" s="62"/>
-      <c r="BE8" s="62"/>
-      <c r="BF8" s="63"/>
-      <c r="BG8" s="61"/>
-      <c r="BH8" s="62"/>
-      <c r="BI8" s="62"/>
-      <c r="BJ8" s="62"/>
-      <c r="BK8" s="63"/>
-      <c r="BL8" s="64"/>
-      <c r="BM8" s="65"/>
-      <c r="BN8" s="65"/>
-      <c r="BO8" s="65"/>
-      <c r="BP8" s="65"/>
-      <c r="BQ8" s="65"/>
-      <c r="BR8" s="65"/>
-      <c r="BS8" s="65"/>
-      <c r="BT8" s="65"/>
-      <c r="BU8" s="66"/>
-    </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A9" s="59">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="62"/>
-      <c r="AE9" s="62"/>
-      <c r="AF9" s="63"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="62"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="62"/>
-      <c r="AL9" s="62"/>
-      <c r="AM9" s="62"/>
-      <c r="AN9" s="62"/>
-      <c r="AO9" s="62"/>
-      <c r="AP9" s="62"/>
-      <c r="AQ9" s="63"/>
-      <c r="AR9" s="61"/>
-      <c r="AS9" s="62"/>
-      <c r="AT9" s="62"/>
-      <c r="AU9" s="62"/>
-      <c r="AV9" s="63"/>
-      <c r="AW9" s="61"/>
-      <c r="AX9" s="62"/>
-      <c r="AY9" s="62"/>
-      <c r="AZ9" s="62"/>
-      <c r="BA9" s="63"/>
-      <c r="BB9" s="61"/>
-      <c r="BC9" s="62"/>
-      <c r="BD9" s="62"/>
-      <c r="BE9" s="62"/>
-      <c r="BF9" s="63"/>
-      <c r="BG9" s="61"/>
-      <c r="BH9" s="62"/>
-      <c r="BI9" s="62"/>
-      <c r="BJ9" s="62"/>
-      <c r="BK9" s="63"/>
-      <c r="BL9" s="64"/>
-      <c r="BM9" s="65"/>
-      <c r="BN9" s="65"/>
-      <c r="BO9" s="65"/>
-      <c r="BP9" s="65"/>
-      <c r="BQ9" s="65"/>
-      <c r="BR9" s="65"/>
-      <c r="BS9" s="65"/>
-      <c r="BT9" s="65"/>
-      <c r="BU9" s="66"/>
-    </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A10" s="59">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="62"/>
-      <c r="AF10" s="63"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="62"/>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="62"/>
-      <c r="AL10" s="62"/>
-      <c r="AM10" s="62"/>
-      <c r="AN10" s="62"/>
-      <c r="AO10" s="62"/>
-      <c r="AP10" s="62"/>
-      <c r="AQ10" s="63"/>
-      <c r="AR10" s="61"/>
-      <c r="AS10" s="62"/>
-      <c r="AT10" s="62"/>
-      <c r="AU10" s="62"/>
-      <c r="AV10" s="63"/>
-      <c r="AW10" s="61"/>
-      <c r="AX10" s="62"/>
-      <c r="AY10" s="62"/>
-      <c r="AZ10" s="62"/>
-      <c r="BA10" s="63"/>
-      <c r="BB10" s="61"/>
-      <c r="BC10" s="62"/>
-      <c r="BD10" s="62"/>
-      <c r="BE10" s="62"/>
-      <c r="BF10" s="63"/>
-      <c r="BG10" s="61"/>
-      <c r="BH10" s="62"/>
-      <c r="BI10" s="62"/>
-      <c r="BJ10" s="62"/>
-      <c r="BK10" s="63"/>
-      <c r="BL10" s="64"/>
-      <c r="BM10" s="65"/>
-      <c r="BN10" s="65"/>
-      <c r="BO10" s="65"/>
-      <c r="BP10" s="65"/>
-      <c r="BQ10" s="65"/>
-      <c r="BR10" s="65"/>
-      <c r="BS10" s="65"/>
-      <c r="BT10" s="65"/>
-      <c r="BU10" s="66"/>
-    </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A11" s="59">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="62"/>
-      <c r="AD11" s="62"/>
-      <c r="AE11" s="62"/>
-      <c r="AF11" s="63"/>
-      <c r="AG11" s="61"/>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="62"/>
-      <c r="AJ11" s="62"/>
-      <c r="AK11" s="62"/>
-      <c r="AL11" s="62"/>
-      <c r="AM11" s="62"/>
-      <c r="AN11" s="62"/>
-      <c r="AO11" s="62"/>
-      <c r="AP11" s="62"/>
-      <c r="AQ11" s="63"/>
-      <c r="AR11" s="61"/>
-      <c r="AS11" s="62"/>
-      <c r="AT11" s="62"/>
-      <c r="AU11" s="62"/>
-      <c r="AV11" s="63"/>
-      <c r="AW11" s="61"/>
-      <c r="AX11" s="62"/>
-      <c r="AY11" s="62"/>
-      <c r="AZ11" s="62"/>
-      <c r="BA11" s="63"/>
-      <c r="BB11" s="61"/>
-      <c r="BC11" s="62"/>
-      <c r="BD11" s="62"/>
-      <c r="BE11" s="62"/>
-      <c r="BF11" s="63"/>
-      <c r="BG11" s="61"/>
-      <c r="BH11" s="62"/>
-      <c r="BI11" s="62"/>
-      <c r="BJ11" s="62"/>
-      <c r="BK11" s="63"/>
-      <c r="BL11" s="64"/>
-      <c r="BM11" s="65"/>
-      <c r="BN11" s="65"/>
-      <c r="BO11" s="65"/>
-      <c r="BP11" s="65"/>
-      <c r="BQ11" s="65"/>
-      <c r="BR11" s="65"/>
-      <c r="BS11" s="65"/>
-      <c r="BT11" s="65"/>
-      <c r="BU11" s="66"/>
-    </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A12" s="59">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
-      <c r="AD12" s="62"/>
-      <c r="AE12" s="62"/>
-      <c r="AF12" s="63"/>
-      <c r="AG12" s="61"/>
-      <c r="AH12" s="62"/>
-      <c r="AI12" s="62"/>
-      <c r="AJ12" s="62"/>
-      <c r="AK12" s="62"/>
-      <c r="AL12" s="62"/>
-      <c r="AM12" s="62"/>
-      <c r="AN12" s="62"/>
-      <c r="AO12" s="62"/>
-      <c r="AP12" s="62"/>
-      <c r="AQ12" s="63"/>
-      <c r="AR12" s="61"/>
-      <c r="AS12" s="62"/>
-      <c r="AT12" s="62"/>
-      <c r="AU12" s="62"/>
-      <c r="AV12" s="63"/>
-      <c r="AW12" s="61"/>
-      <c r="AX12" s="62"/>
-      <c r="AY12" s="62"/>
-      <c r="AZ12" s="62"/>
-      <c r="BA12" s="63"/>
-      <c r="BB12" s="61"/>
-      <c r="BC12" s="62"/>
-      <c r="BD12" s="62"/>
-      <c r="BE12" s="62"/>
-      <c r="BF12" s="63"/>
-      <c r="BG12" s="61"/>
-      <c r="BH12" s="62"/>
-      <c r="BI12" s="62"/>
-      <c r="BJ12" s="62"/>
-      <c r="BK12" s="63"/>
-      <c r="BL12" s="64"/>
-      <c r="BM12" s="65"/>
-      <c r="BN12" s="65"/>
-      <c r="BO12" s="65"/>
-      <c r="BP12" s="65"/>
-      <c r="BQ12" s="65"/>
-      <c r="BR12" s="65"/>
-      <c r="BS12" s="65"/>
-      <c r="BT12" s="65"/>
-      <c r="BU12" s="66"/>
-    </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A13" s="59">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
-      <c r="AD13" s="62"/>
-      <c r="AE13" s="62"/>
-      <c r="AF13" s="63"/>
-      <c r="AG13" s="61"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="62"/>
-      <c r="AJ13" s="62"/>
-      <c r="AK13" s="62"/>
-      <c r="AL13" s="62"/>
-      <c r="AM13" s="62"/>
-      <c r="AN13" s="62"/>
-      <c r="AO13" s="62"/>
-      <c r="AP13" s="62"/>
-      <c r="AQ13" s="63"/>
-      <c r="AR13" s="61"/>
-      <c r="AS13" s="62"/>
-      <c r="AT13" s="62"/>
-      <c r="AU13" s="62"/>
-      <c r="AV13" s="63"/>
-      <c r="AW13" s="61"/>
-      <c r="AX13" s="62"/>
-      <c r="AY13" s="62"/>
-      <c r="AZ13" s="62"/>
-      <c r="BA13" s="63"/>
-      <c r="BB13" s="61"/>
-      <c r="BC13" s="62"/>
-      <c r="BD13" s="62"/>
-      <c r="BE13" s="62"/>
-      <c r="BF13" s="63"/>
-      <c r="BG13" s="61"/>
-      <c r="BH13" s="62"/>
-      <c r="BI13" s="62"/>
-      <c r="BJ13" s="62"/>
-      <c r="BK13" s="63"/>
-      <c r="BL13" s="64"/>
-      <c r="BM13" s="65"/>
-      <c r="BN13" s="65"/>
-      <c r="BO13" s="65"/>
-      <c r="BP13" s="65"/>
-      <c r="BQ13" s="65"/>
-      <c r="BR13" s="65"/>
-      <c r="BS13" s="65"/>
-      <c r="BT13" s="65"/>
-      <c r="BU13" s="66"/>
-    </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A14" s="59">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="62"/>
-      <c r="AF14" s="63"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="62"/>
-      <c r="AL14" s="62"/>
-      <c r="AM14" s="62"/>
-      <c r="AN14" s="62"/>
-      <c r="AO14" s="62"/>
-      <c r="AP14" s="62"/>
-      <c r="AQ14" s="63"/>
-      <c r="AR14" s="61"/>
-      <c r="AS14" s="62"/>
-      <c r="AT14" s="62"/>
-      <c r="AU14" s="62"/>
-      <c r="AV14" s="63"/>
-      <c r="AW14" s="61"/>
-      <c r="AX14" s="62"/>
-      <c r="AY14" s="62"/>
-      <c r="AZ14" s="62"/>
-      <c r="BA14" s="63"/>
-      <c r="BB14" s="61"/>
-      <c r="BC14" s="62"/>
-      <c r="BD14" s="62"/>
-      <c r="BE14" s="62"/>
-      <c r="BF14" s="63"/>
-      <c r="BG14" s="61"/>
-      <c r="BH14" s="62"/>
-      <c r="BI14" s="62"/>
-      <c r="BJ14" s="62"/>
-      <c r="BK14" s="63"/>
-      <c r="BL14" s="64"/>
-      <c r="BM14" s="65"/>
-      <c r="BN14" s="65"/>
-      <c r="BO14" s="65"/>
-      <c r="BP14" s="65"/>
-      <c r="BQ14" s="65"/>
-      <c r="BR14" s="65"/>
-      <c r="BS14" s="65"/>
-      <c r="BT14" s="65"/>
-      <c r="BU14" s="66"/>
-    </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A15" s="59">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="62"/>
-      <c r="AF15" s="63"/>
-      <c r="AG15" s="61"/>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="62"/>
-      <c r="AJ15" s="62"/>
-      <c r="AK15" s="62"/>
-      <c r="AL15" s="62"/>
-      <c r="AM15" s="62"/>
-      <c r="AN15" s="62"/>
-      <c r="AO15" s="62"/>
-      <c r="AP15" s="62"/>
-      <c r="AQ15" s="63"/>
-      <c r="AR15" s="61"/>
-      <c r="AS15" s="62"/>
-      <c r="AT15" s="62"/>
-      <c r="AU15" s="62"/>
-      <c r="AV15" s="63"/>
-      <c r="AW15" s="61"/>
-      <c r="AX15" s="62"/>
-      <c r="AY15" s="62"/>
-      <c r="AZ15" s="62"/>
-      <c r="BA15" s="63"/>
-      <c r="BB15" s="61"/>
-      <c r="BC15" s="62"/>
-      <c r="BD15" s="62"/>
-      <c r="BE15" s="62"/>
-      <c r="BF15" s="63"/>
-      <c r="BG15" s="61"/>
-      <c r="BH15" s="62"/>
-      <c r="BI15" s="62"/>
-      <c r="BJ15" s="62"/>
-      <c r="BK15" s="63"/>
-      <c r="BL15" s="64"/>
-      <c r="BM15" s="65"/>
-      <c r="BN15" s="65"/>
-      <c r="BO15" s="65"/>
-      <c r="BP15" s="65"/>
-      <c r="BQ15" s="65"/>
-      <c r="BR15" s="65"/>
-      <c r="BS15" s="65"/>
-      <c r="BT15" s="65"/>
-      <c r="BU15" s="66"/>
-    </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A16" s="59">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="62"/>
-      <c r="AE16" s="62"/>
-      <c r="AF16" s="63"/>
-      <c r="AG16" s="61"/>
-      <c r="AH16" s="62"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="62"/>
-      <c r="AK16" s="62"/>
-      <c r="AL16" s="62"/>
-      <c r="AM16" s="62"/>
-      <c r="AN16" s="62"/>
-      <c r="AO16" s="62"/>
-      <c r="AP16" s="62"/>
-      <c r="AQ16" s="63"/>
-      <c r="AR16" s="61"/>
-      <c r="AS16" s="62"/>
-      <c r="AT16" s="62"/>
-      <c r="AU16" s="62"/>
-      <c r="AV16" s="63"/>
-      <c r="AW16" s="61"/>
-      <c r="AX16" s="62"/>
-      <c r="AY16" s="62"/>
-      <c r="AZ16" s="62"/>
-      <c r="BA16" s="63"/>
-      <c r="BB16" s="61"/>
-      <c r="BC16" s="62"/>
-      <c r="BD16" s="62"/>
-      <c r="BE16" s="62"/>
-      <c r="BF16" s="63"/>
-      <c r="BG16" s="61"/>
-      <c r="BH16" s="62"/>
-      <c r="BI16" s="62"/>
-      <c r="BJ16" s="62"/>
-      <c r="BK16" s="63"/>
-      <c r="BL16" s="64"/>
-      <c r="BM16" s="65"/>
-      <c r="BN16" s="65"/>
-      <c r="BO16" s="65"/>
-      <c r="BP16" s="65"/>
-      <c r="BQ16" s="65"/>
-      <c r="BR16" s="65"/>
-      <c r="BS16" s="65"/>
-      <c r="BT16" s="65"/>
-      <c r="BU16" s="66"/>
-    </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A17" s="59">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="62"/>
-      <c r="AB17" s="62"/>
-      <c r="AC17" s="62"/>
-      <c r="AD17" s="62"/>
-      <c r="AE17" s="62"/>
-      <c r="AF17" s="63"/>
-      <c r="AG17" s="61"/>
-      <c r="AH17" s="62"/>
-      <c r="AI17" s="62"/>
-      <c r="AJ17" s="62"/>
-      <c r="AK17" s="62"/>
-      <c r="AL17" s="62"/>
-      <c r="AM17" s="62"/>
-      <c r="AN17" s="62"/>
-      <c r="AO17" s="62"/>
-      <c r="AP17" s="62"/>
-      <c r="AQ17" s="63"/>
-      <c r="AR17" s="61"/>
-      <c r="AS17" s="62"/>
-      <c r="AT17" s="62"/>
-      <c r="AU17" s="62"/>
-      <c r="AV17" s="63"/>
-      <c r="AW17" s="61"/>
-      <c r="AX17" s="62"/>
-      <c r="AY17" s="62"/>
-      <c r="AZ17" s="62"/>
-      <c r="BA17" s="63"/>
-      <c r="BB17" s="61"/>
-      <c r="BC17" s="62"/>
-      <c r="BD17" s="62"/>
-      <c r="BE17" s="62"/>
-      <c r="BF17" s="63"/>
-      <c r="BG17" s="61"/>
-      <c r="BH17" s="62"/>
-      <c r="BI17" s="62"/>
-      <c r="BJ17" s="62"/>
-      <c r="BK17" s="63"/>
-      <c r="BL17" s="64"/>
-      <c r="BM17" s="65"/>
-      <c r="BN17" s="65"/>
-      <c r="BO17" s="65"/>
-      <c r="BP17" s="65"/>
-      <c r="BQ17" s="65"/>
-      <c r="BR17" s="65"/>
-      <c r="BS17" s="65"/>
-      <c r="BT17" s="65"/>
-      <c r="BU17" s="66"/>
-    </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A18" s="59">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="62"/>
-      <c r="AD18" s="62"/>
-      <c r="AE18" s="62"/>
-      <c r="AF18" s="63"/>
-      <c r="AG18" s="61"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="62"/>
-      <c r="AJ18" s="62"/>
-      <c r="AK18" s="62"/>
-      <c r="AL18" s="62"/>
-      <c r="AM18" s="62"/>
-      <c r="AN18" s="62"/>
-      <c r="AO18" s="62"/>
-      <c r="AP18" s="62"/>
-      <c r="AQ18" s="63"/>
-      <c r="AR18" s="61"/>
-      <c r="AS18" s="62"/>
-      <c r="AT18" s="62"/>
-      <c r="AU18" s="62"/>
-      <c r="AV18" s="63"/>
-      <c r="AW18" s="61"/>
-      <c r="AX18" s="62"/>
-      <c r="AY18" s="62"/>
-      <c r="AZ18" s="62"/>
-      <c r="BA18" s="63"/>
-      <c r="BB18" s="61"/>
-      <c r="BC18" s="62"/>
-      <c r="BD18" s="62"/>
-      <c r="BE18" s="62"/>
-      <c r="BF18" s="63"/>
-      <c r="BG18" s="61"/>
-      <c r="BH18" s="62"/>
-      <c r="BI18" s="62"/>
-      <c r="BJ18" s="62"/>
-      <c r="BK18" s="63"/>
-      <c r="BL18" s="64"/>
-      <c r="BM18" s="65"/>
-      <c r="BN18" s="65"/>
-      <c r="BO18" s="65"/>
-      <c r="BP18" s="65"/>
-      <c r="BQ18" s="65"/>
-      <c r="BR18" s="65"/>
-      <c r="BS18" s="65"/>
-      <c r="BT18" s="65"/>
-      <c r="BU18" s="66"/>
-    </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A19" s="59">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="63"/>
-      <c r="AG19" s="61"/>
-      <c r="AH19" s="62"/>
-      <c r="AI19" s="62"/>
-      <c r="AJ19" s="62"/>
-      <c r="AK19" s="62"/>
-      <c r="AL19" s="62"/>
-      <c r="AM19" s="62"/>
-      <c r="AN19" s="62"/>
-      <c r="AO19" s="62"/>
-      <c r="AP19" s="62"/>
-      <c r="AQ19" s="63"/>
-      <c r="AR19" s="61"/>
-      <c r="AS19" s="62"/>
-      <c r="AT19" s="62"/>
-      <c r="AU19" s="62"/>
-      <c r="AV19" s="63"/>
-      <c r="AW19" s="61"/>
-      <c r="AX19" s="62"/>
-      <c r="AY19" s="62"/>
-      <c r="AZ19" s="62"/>
-      <c r="BA19" s="63"/>
-      <c r="BB19" s="61"/>
-      <c r="BC19" s="62"/>
-      <c r="BD19" s="62"/>
-      <c r="BE19" s="62"/>
-      <c r="BF19" s="63"/>
-      <c r="BG19" s="61"/>
-      <c r="BH19" s="62"/>
-      <c r="BI19" s="62"/>
-      <c r="BJ19" s="62"/>
-      <c r="BK19" s="63"/>
-      <c r="BL19" s="64"/>
-      <c r="BM19" s="65"/>
-      <c r="BN19" s="65"/>
-      <c r="BO19" s="65"/>
-      <c r="BP19" s="65"/>
-      <c r="BQ19" s="65"/>
-      <c r="BR19" s="65"/>
-      <c r="BS19" s="65"/>
-      <c r="BT19" s="65"/>
-      <c r="BU19" s="66"/>
-    </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A20" s="59">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="63"/>
-      <c r="AG20" s="61"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="62"/>
-      <c r="AK20" s="62"/>
-      <c r="AL20" s="62"/>
-      <c r="AM20" s="62"/>
-      <c r="AN20" s="62"/>
-      <c r="AO20" s="62"/>
-      <c r="AP20" s="62"/>
-      <c r="AQ20" s="63"/>
-      <c r="AR20" s="61"/>
-      <c r="AS20" s="62"/>
-      <c r="AT20" s="62"/>
-      <c r="AU20" s="62"/>
-      <c r="AV20" s="63"/>
-      <c r="AW20" s="61"/>
-      <c r="AX20" s="62"/>
-      <c r="AY20" s="62"/>
-      <c r="AZ20" s="62"/>
-      <c r="BA20" s="63"/>
-      <c r="BB20" s="61"/>
-      <c r="BC20" s="62"/>
-      <c r="BD20" s="62"/>
-      <c r="BE20" s="62"/>
-      <c r="BF20" s="63"/>
-      <c r="BG20" s="61"/>
-      <c r="BH20" s="62"/>
-      <c r="BI20" s="62"/>
-      <c r="BJ20" s="62"/>
-      <c r="BK20" s="63"/>
-      <c r="BL20" s="64"/>
-      <c r="BM20" s="65"/>
-      <c r="BN20" s="65"/>
-      <c r="BO20" s="65"/>
-      <c r="BP20" s="65"/>
-      <c r="BQ20" s="65"/>
-      <c r="BR20" s="65"/>
-      <c r="BS20" s="65"/>
-      <c r="BT20" s="65"/>
-      <c r="BU20" s="66"/>
-    </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A21" s="59">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="62"/>
-      <c r="AD21" s="62"/>
-      <c r="AE21" s="62"/>
-      <c r="AF21" s="63"/>
-      <c r="AG21" s="61"/>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="62"/>
-      <c r="AJ21" s="62"/>
-      <c r="AK21" s="62"/>
-      <c r="AL21" s="62"/>
-      <c r="AM21" s="62"/>
-      <c r="AN21" s="62"/>
-      <c r="AO21" s="62"/>
-      <c r="AP21" s="62"/>
-      <c r="AQ21" s="63"/>
-      <c r="AR21" s="61"/>
-      <c r="AS21" s="62"/>
-      <c r="AT21" s="62"/>
-      <c r="AU21" s="62"/>
-      <c r="AV21" s="63"/>
-      <c r="AW21" s="61"/>
-      <c r="AX21" s="62"/>
-      <c r="AY21" s="62"/>
-      <c r="AZ21" s="62"/>
-      <c r="BA21" s="63"/>
-      <c r="BB21" s="61"/>
-      <c r="BC21" s="62"/>
-      <c r="BD21" s="62"/>
-      <c r="BE21" s="62"/>
-      <c r="BF21" s="63"/>
-      <c r="BG21" s="61"/>
-      <c r="BH21" s="62"/>
-      <c r="BI21" s="62"/>
-      <c r="BJ21" s="62"/>
-      <c r="BK21" s="63"/>
-      <c r="BL21" s="64"/>
-      <c r="BM21" s="65"/>
-      <c r="BN21" s="65"/>
-      <c r="BO21" s="65"/>
-      <c r="BP21" s="65"/>
-      <c r="BQ21" s="65"/>
-      <c r="BR21" s="65"/>
-      <c r="BS21" s="65"/>
-      <c r="BT21" s="65"/>
-      <c r="BU21" s="66"/>
-    </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="A22" s="59">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="62"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="62"/>
-      <c r="AD22" s="62"/>
-      <c r="AE22" s="62"/>
-      <c r="AF22" s="63"/>
-      <c r="AG22" s="61"/>
-      <c r="AH22" s="62"/>
-      <c r="AI22" s="62"/>
-      <c r="AJ22" s="62"/>
-      <c r="AK22" s="62"/>
-      <c r="AL22" s="62"/>
-      <c r="AM22" s="62"/>
-      <c r="AN22" s="62"/>
-      <c r="AO22" s="62"/>
-      <c r="AP22" s="62"/>
-      <c r="AQ22" s="63"/>
-      <c r="AR22" s="61"/>
-      <c r="AS22" s="62"/>
-      <c r="AT22" s="62"/>
-      <c r="AU22" s="62"/>
-      <c r="AV22" s="63"/>
-      <c r="AW22" s="61"/>
-      <c r="AX22" s="62"/>
-      <c r="AY22" s="62"/>
-      <c r="AZ22" s="62"/>
-      <c r="BA22" s="63"/>
-      <c r="BB22" s="61"/>
-      <c r="BC22" s="62"/>
-      <c r="BD22" s="62"/>
-      <c r="BE22" s="62"/>
-      <c r="BF22" s="63"/>
-      <c r="BG22" s="61"/>
-      <c r="BH22" s="62"/>
-      <c r="BI22" s="62"/>
-      <c r="BJ22" s="62"/>
-      <c r="BK22" s="63"/>
-      <c r="BL22" s="64"/>
-      <c r="BM22" s="65"/>
-      <c r="BN22" s="65"/>
-      <c r="BO22" s="65"/>
-      <c r="BP22" s="65"/>
-      <c r="BQ22" s="65"/>
-      <c r="BR22" s="65"/>
-      <c r="BS22" s="65"/>
-      <c r="BT22" s="65"/>
-      <c r="BU22" s="66"/>
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="40"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="40"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="40"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="40"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="40"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="40"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="40"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
-    <mergeCell ref="AR22:AV22"/>
-    <mergeCell ref="AW22:BA22"/>
-    <mergeCell ref="BB22:BF22"/>
-    <mergeCell ref="BG22:BK22"/>
-    <mergeCell ref="BL22:BU22"/>
-    <mergeCell ref="AR21:AV21"/>
-    <mergeCell ref="AW21:BA21"/>
-    <mergeCell ref="BB21:BF21"/>
-    <mergeCell ref="BG21:BK21"/>
-    <mergeCell ref="BL21:BU21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:M22"/>
-    <mergeCell ref="N22:T22"/>
-    <mergeCell ref="U22:AF22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="N21:T21"/>
-    <mergeCell ref="U21:AF21"/>
-    <mergeCell ref="AG21:AQ21"/>
-    <mergeCell ref="AG22:AQ22"/>
-    <mergeCell ref="AR20:AV20"/>
-    <mergeCell ref="AW20:BA20"/>
-    <mergeCell ref="BB20:BF20"/>
-    <mergeCell ref="BG20:BK20"/>
-    <mergeCell ref="BL20:BU20"/>
-    <mergeCell ref="AR19:AV19"/>
-    <mergeCell ref="AW19:BA19"/>
-    <mergeCell ref="BB19:BF19"/>
-    <mergeCell ref="BG19:BK19"/>
-    <mergeCell ref="BL19:BU19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="N20:T20"/>
-    <mergeCell ref="U20:AF20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="N19:T19"/>
-    <mergeCell ref="U19:AF19"/>
-    <mergeCell ref="AG19:AQ19"/>
-    <mergeCell ref="AG20:AQ20"/>
-    <mergeCell ref="AR18:AV18"/>
-    <mergeCell ref="AW18:BA18"/>
-    <mergeCell ref="BB18:BF18"/>
-    <mergeCell ref="BG18:BK18"/>
-    <mergeCell ref="BL18:BU18"/>
-    <mergeCell ref="AR17:AV17"/>
-    <mergeCell ref="AW17:BA17"/>
-    <mergeCell ref="BB17:BF17"/>
-    <mergeCell ref="BG17:BK17"/>
-    <mergeCell ref="BL17:BU17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="N18:T18"/>
-    <mergeCell ref="U18:AF18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="N17:T17"/>
-    <mergeCell ref="U17:AF17"/>
-    <mergeCell ref="AG17:AQ17"/>
-    <mergeCell ref="AG18:AQ18"/>
-    <mergeCell ref="AR16:AV16"/>
-    <mergeCell ref="AW16:BA16"/>
-    <mergeCell ref="BB16:BF16"/>
-    <mergeCell ref="BG16:BK16"/>
-    <mergeCell ref="BL16:BU16"/>
-    <mergeCell ref="AR15:AV15"/>
-    <mergeCell ref="AW15:BA15"/>
-    <mergeCell ref="BB15:BF15"/>
-    <mergeCell ref="BG15:BK15"/>
-    <mergeCell ref="BL15:BU15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="N16:T16"/>
-    <mergeCell ref="U16:AF16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="N15:T15"/>
-    <mergeCell ref="U15:AF15"/>
-    <mergeCell ref="AG15:AQ15"/>
-    <mergeCell ref="AG16:AQ16"/>
-    <mergeCell ref="AR14:AV14"/>
-    <mergeCell ref="AW14:BA14"/>
-    <mergeCell ref="BB14:BF14"/>
-    <mergeCell ref="BG14:BK14"/>
-    <mergeCell ref="BL14:BU14"/>
-    <mergeCell ref="AR13:AV13"/>
-    <mergeCell ref="AW13:BA13"/>
-    <mergeCell ref="BB13:BF13"/>
-    <mergeCell ref="BG13:BK13"/>
-    <mergeCell ref="BL13:BU13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="N14:T14"/>
-    <mergeCell ref="U14:AF14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="U13:AF13"/>
-    <mergeCell ref="AG13:AQ13"/>
-    <mergeCell ref="AG14:AQ14"/>
-    <mergeCell ref="AR12:AV12"/>
-    <mergeCell ref="AW12:BA12"/>
-    <mergeCell ref="BB12:BF12"/>
-    <mergeCell ref="BG12:BK12"/>
-    <mergeCell ref="BL12:BU12"/>
-    <mergeCell ref="AR11:AV11"/>
-    <mergeCell ref="AW11:BA11"/>
-    <mergeCell ref="BB11:BF11"/>
-    <mergeCell ref="BG11:BK11"/>
-    <mergeCell ref="BL11:BU11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:M12"/>
-    <mergeCell ref="N12:T12"/>
-    <mergeCell ref="U12:AF12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:M11"/>
-    <mergeCell ref="N11:T11"/>
-    <mergeCell ref="U11:AF11"/>
-    <mergeCell ref="AG11:AQ11"/>
-    <mergeCell ref="AG12:AQ12"/>
-    <mergeCell ref="AR10:AV10"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="BB10:BF10"/>
-    <mergeCell ref="BG10:BK10"/>
-    <mergeCell ref="BL10:BU10"/>
-    <mergeCell ref="AR9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="BB9:BF9"/>
-    <mergeCell ref="BG9:BK9"/>
-    <mergeCell ref="BL9:BU9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="N10:T10"/>
-    <mergeCell ref="U10:AF10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="N9:T9"/>
-    <mergeCell ref="U9:AF9"/>
-    <mergeCell ref="AG9:AQ9"/>
-    <mergeCell ref="AG10:AQ10"/>
-    <mergeCell ref="BB5:BF5"/>
-    <mergeCell ref="BG5:BK5"/>
-    <mergeCell ref="BL5:BU5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="N8:T8"/>
-    <mergeCell ref="U8:AF8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="U7:AF7"/>
-    <mergeCell ref="AG7:AQ7"/>
-    <mergeCell ref="AG8:AQ8"/>
-    <mergeCell ref="AR8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="BB8:BF8"/>
-    <mergeCell ref="BG8:BK8"/>
-    <mergeCell ref="BL8:BU8"/>
-    <mergeCell ref="AR7:AV7"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="BB7:BF7"/>
-    <mergeCell ref="BG7:BK7"/>
-    <mergeCell ref="BL7:BU7"/>
-    <mergeCell ref="BG4:BK4"/>
-    <mergeCell ref="BL4:BU4"/>
-    <mergeCell ref="AR3:AV3"/>
-    <mergeCell ref="AW3:BA3"/>
-    <mergeCell ref="BB3:BF3"/>
-    <mergeCell ref="BG3:BK3"/>
-    <mergeCell ref="BL3:BU3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="U6:AF6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="N5:T5"/>
-    <mergeCell ref="U5:AF5"/>
-    <mergeCell ref="AG5:AQ5"/>
-    <mergeCell ref="AG6:AQ6"/>
-    <mergeCell ref="AR6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="BB6:BF6"/>
-    <mergeCell ref="BG6:BK6"/>
-    <mergeCell ref="BL6:BU6"/>
-    <mergeCell ref="AR5:AV5"/>
-    <mergeCell ref="AW5:BA5"/>
-    <mergeCell ref="AB1:BC1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AF4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="U3:AF3"/>
-    <mergeCell ref="AG3:AQ3"/>
-    <mergeCell ref="AG4:AQ4"/>
-    <mergeCell ref="AR4:AV4"/>
-    <mergeCell ref="AW4:BA4"/>
-    <mergeCell ref="BB4:BF4"/>
-  </mergeCells>
   <phoneticPr fontId="8"/>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.59055118110236204" bottom="0.59055118110236204" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5238,7 +3331,9 @@
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5254,454 +3349,454 @@
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -5710,10 +3805,10 @@
     <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -5722,10 +3817,10 @@
     <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -5734,10 +3829,10 @@
     <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -5746,10 +3841,10 @@
     <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -5758,10 +3853,10 @@
     <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -5770,10 +3865,10 @@
     <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -5782,10 +3877,10 @@
     <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -5794,10 +3889,10 @@
     <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -5806,10 +3901,10 @@
     <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -5818,10 +3913,10 @@
     <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -5830,10 +3925,10 @@
     <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -5842,10 +3937,10 @@
     <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -5854,10 +3949,10 @@
     <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -5866,10 +3961,10 @@
     <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -5878,10 +3973,10 @@
     <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -5890,10 +3985,10 @@
     <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -5902,10 +3997,10 @@
     <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -5914,10 +4009,10 @@
     <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -5926,10 +4021,10 @@
     <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="3" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -5938,10 +4033,10 @@
     <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -5950,10 +4045,10 @@
     <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -5962,10 +4057,10 @@
     <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -5974,10 +4069,10 @@
     <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -5986,10 +4081,10 @@
     <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="3" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
